--- a/ISA.xlsx
+++ b/ISA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Iteration2\150119692_150119860_150119766_170517033\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA73AAF-BA9A-4927-9FE8-F61A2B48A3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F34D1E-4601-4C7B-9E02-687DB17D4C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5653F1F-52DD-4954-B9B3-0D938EB2F1A5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>AND</t>
   </si>
@@ -108,12 +108,6 @@
     <t>SR</t>
   </si>
   <si>
-    <t>[3:0]</t>
-  </si>
-  <si>
-    <t>Opcode [17:14]</t>
-  </si>
-  <si>
     <t>0000</t>
   </si>
   <si>
@@ -150,27 +144,6 @@
     <t>1011</t>
   </si>
   <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>1110</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>[13:10]</t>
-  </si>
-  <si>
-    <t>[9:6]</t>
-  </si>
-  <si>
-    <t>[5:4]</t>
-  </si>
-  <si>
     <t>Bedirhan SARIHAN</t>
   </si>
   <si>
@@ -184,6 +157,39 @@
   </si>
   <si>
     <t>Instruction Set Architecture</t>
+  </si>
+  <si>
+    <t>{17,16,15,14}</t>
+  </si>
+  <si>
+    <t>Bits</t>
+  </si>
+  <si>
+    <t>{3,2,1,0}</t>
+  </si>
+  <si>
+    <t>{13,12,11,10}</t>
+  </si>
+  <si>
+    <t>{9,8,7,6}</t>
+  </si>
+  <si>
+    <t>{5,4}</t>
+  </si>
+  <si>
+    <t>ADDR + 010</t>
+  </si>
+  <si>
+    <t>ADDR + 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADDR + 001</t>
+  </si>
+  <si>
+    <t>ADDR + 110</t>
+  </si>
+  <si>
+    <t>ADDR + 011</t>
   </si>
 </sst>
 </file>
@@ -295,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -400,24 +406,201 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -433,170 +616,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -614,7 +633,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -631,76 +650,83 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -710,18 +736,23 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1052,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487463A7-8EE7-458D-896D-3564491EC303}">
-  <dimension ref="C3:H27"/>
+  <dimension ref="C3:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G36:G37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,59 +1098,73 @@
     <col min="8" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="36"/>
-    </row>
-    <row r="4" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="38"/>
+    </row>
+    <row r="4" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="3:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="22"/>
-      <c r="D5" s="15" t="s">
+    <row r="5" spans="3:16" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+    </row>
+    <row r="6" spans="3:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="3:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>21</v>
@@ -1130,16 +1175,22 @@
       <c r="G7" s="2">
         <v>0</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="24" t="s">
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="3:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>28</v>
+      <c r="D8" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
@@ -1150,48 +1201,66 @@
       <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="24" t="s">
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="3:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>29</v>
+      <c r="D9" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="27"/>
-    </row>
-    <row r="10" spans="3:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="24" t="s">
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="3:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="27"/>
-    </row>
-    <row r="11" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="24" t="s">
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="3:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>31</v>
+      <c r="D11" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
@@ -1199,17 +1268,23 @@
       <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12" spans="3:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
+      <c r="H11" s="34"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="3:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>32</v>
+      <c r="D12" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
@@ -1217,17 +1292,23 @@
       <c r="F12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="31"/>
-    </row>
-    <row r="13" spans="3:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="24" t="s">
+      <c r="H12" s="34"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+    </row>
+    <row r="13" spans="3:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>33</v>
+      <c r="D13" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
@@ -1235,17 +1316,23 @@
       <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14" spans="3:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="24" t="s">
+      <c r="H13" s="34"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+    </row>
+    <row r="14" spans="3:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>34</v>
+      <c r="D14" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
@@ -1256,16 +1343,22 @@
       <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="24" t="s">
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+    </row>
+    <row r="15" spans="3:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>35</v>
+      <c r="D15" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
@@ -1273,163 +1366,210 @@
       <c r="F15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="24" t="s">
+      <c r="H15" s="34"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+    </row>
+    <row r="16" spans="3:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+    </row>
+    <row r="17" spans="3:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+    </row>
+    <row r="18" spans="3:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="3:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="3:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="3:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C24" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-    </row>
-    <row r="17" spans="3:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="20" t="s">
+      <c r="D24" s="23">
+        <v>150119692</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C25" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="27"/>
-    </row>
-    <row r="18" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="20" t="s">
+      <c r="D25" s="23">
+        <v>150119860</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C26" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="27"/>
-    </row>
-    <row r="19" spans="3:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="20" t="s">
+      <c r="D26" s="23">
+        <v>150119766</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C27" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="27"/>
-    </row>
-    <row r="21" spans="3:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="29"/>
-    </row>
-    <row r="22" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="35">
-        <v>150119692</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="35">
-        <v>150119860</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="35">
-        <v>150119766</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="35">
+      <c r="D27" s="23">
         <v>170517033</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="8">
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:H16"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
